--- a/relatorios/repasses_liberados/dentistas/09593988483/2023-08-25_relatorio_repasses_09593988483.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09593988483/2023-08-25_relatorio_repasses_09593988483.xlsx
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -46640,7 +46640,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46728,7 +46728,7 @@
         <v>0</v>
       </c>
       <c r="M1011">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1011">
         <v>0</v>
@@ -46816,7 +46816,7 @@
         <v>0</v>
       </c>
       <c r="M1013">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1013">
         <v>0</v>
@@ -47432,7 +47432,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -47520,7 +47520,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -47784,7 +47784,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -48048,7 +48048,7 @@
         <v>0</v>
       </c>
       <c r="M1041">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1041">
         <v>0</v>
@@ -48224,7 +48224,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -49896,7 +49896,7 @@
         <v>0</v>
       </c>
       <c r="M1083">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1083">
         <v>0</v>
@@ -49940,7 +49940,7 @@
         <v>0</v>
       </c>
       <c r="M1084">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1084">
         <v>0</v>
@@ -49984,7 +49984,7 @@
         <v>0</v>
       </c>
       <c r="M1085">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1085">
         <v>0</v>
@@ -50028,7 +50028,7 @@
         <v>0</v>
       </c>
       <c r="M1086">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1086">
         <v>0</v>
@@ -50732,7 +50732,7 @@
         <v>0</v>
       </c>
       <c r="M1102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1102">
         <v>0</v>
@@ -50776,7 +50776,7 @@
         <v>0</v>
       </c>
       <c r="M1103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1103">
         <v>0</v>
@@ -50952,7 +50952,7 @@
         <v>0</v>
       </c>
       <c r="M1107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1107">
         <v>0</v>
@@ -50996,7 +50996,7 @@
         <v>0</v>
       </c>
       <c r="M1108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1108">
         <v>0</v>
@@ -52052,7 +52052,7 @@
         <v>0</v>
       </c>
       <c r="M1132">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1132">
         <v>0</v>
@@ -52096,7 +52096,7 @@
         <v>0</v>
       </c>
       <c r="M1133">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1133">
         <v>0</v>
@@ -52140,7 +52140,7 @@
         <v>0</v>
       </c>
       <c r="M1134">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1134">
         <v>0</v>
@@ -53284,7 +53284,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -53328,7 +53328,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -53988,7 +53988,7 @@
         <v>0</v>
       </c>
       <c r="M1176">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1176">
         <v>0</v>
@@ -54252,7 +54252,7 @@
         <v>0</v>
       </c>
       <c r="M1182">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1182">
         <v>0</v>
@@ -54340,7 +54340,7 @@
         <v>0</v>
       </c>
       <c r="M1184">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1184">
         <v>0</v>
@@ -54736,7 +54736,7 @@
         <v>0</v>
       </c>
       <c r="M1193">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1193">
         <v>0</v>
@@ -55352,7 +55352,7 @@
         <v>0</v>
       </c>
       <c r="M1207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1207">
         <v>0</v>
@@ -55440,7 +55440,7 @@
         <v>0</v>
       </c>
       <c r="M1209">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1209">
         <v>0</v>
@@ -55924,7 +55924,7 @@
         <v>0</v>
       </c>
       <c r="M1220">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1220">
         <v>0</v>
@@ -56056,7 +56056,7 @@
         <v>0</v>
       </c>
       <c r="M1223">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1223">
         <v>0</v>
@@ -56320,7 +56320,7 @@
         <v>0</v>
       </c>
       <c r="M1229">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1229">
         <v>0</v>
@@ -56364,7 +56364,7 @@
         <v>0</v>
       </c>
       <c r="M1230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1230">
         <v>0</v>
@@ -56452,7 +56452,7 @@
         <v>0</v>
       </c>
       <c r="M1232">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1232">
         <v>0</v>
@@ -56496,7 +56496,7 @@
         <v>0</v>
       </c>
       <c r="M1233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1233">
         <v>0</v>
@@ -57244,7 +57244,7 @@
         <v>0</v>
       </c>
       <c r="M1250">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1250">
         <v>0</v>
@@ -57288,7 +57288,7 @@
         <v>0</v>
       </c>
       <c r="M1251">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1251">
         <v>0</v>
@@ -57332,7 +57332,7 @@
         <v>0</v>
       </c>
       <c r="M1252">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1252">
         <v>0</v>
@@ -57552,7 +57552,7 @@
         <v>0</v>
       </c>
       <c r="M1257">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1257">
         <v>0</v>
@@ -57596,7 +57596,7 @@
         <v>0</v>
       </c>
       <c r="M1258">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1258">
         <v>0</v>
@@ -57816,7 +57816,7 @@
         <v>0</v>
       </c>
       <c r="M1263">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1263">
         <v>0</v>
@@ -57860,7 +57860,7 @@
         <v>0</v>
       </c>
       <c r="M1264">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1264">
         <v>0</v>
@@ -58696,7 +58696,7 @@
         <v>0</v>
       </c>
       <c r="M1283">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1283">
         <v>0</v>
@@ -58740,7 +58740,7 @@
         <v>0</v>
       </c>
       <c r="M1284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1284">
         <v>0</v>
@@ -58784,7 +58784,7 @@
         <v>0</v>
       </c>
       <c r="M1285">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1285">
         <v>0</v>
@@ -58872,7 +58872,7 @@
         <v>0</v>
       </c>
       <c r="M1287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1287">
         <v>0</v>
@@ -59444,7 +59444,7 @@
         <v>0</v>
       </c>
       <c r="M1300">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1300">
         <v>0</v>
@@ -59488,7 +59488,7 @@
         <v>0</v>
       </c>
       <c r="M1301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1301">
         <v>0</v>
@@ -60060,7 +60060,7 @@
         <v>0</v>
       </c>
       <c r="M1314">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1314">
         <v>0</v>
@@ -60456,7 +60456,7 @@
         <v>0</v>
       </c>
       <c r="M1323">
-        <v>0.59</v>
+        <v>0.3</v>
       </c>
       <c r="N1323">
         <v>0</v>
@@ -60500,7 +60500,7 @@
         <v>0</v>
       </c>
       <c r="M1324">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="N1324">
         <v>0</v>
@@ -60940,7 +60940,7 @@
         <v>0</v>
       </c>
       <c r="M1334">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1334">
         <v>0</v>
@@ -61028,7 +61028,7 @@
         <v>0</v>
       </c>
       <c r="M1336">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1336">
         <v>0</v>
@@ -62392,7 +62392,7 @@
         <v>0</v>
       </c>
       <c r="M1367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1367">
         <v>0</v>
@@ -62480,7 +62480,7 @@
         <v>0</v>
       </c>
       <c r="M1369">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1369">
         <v>0</v>
@@ -62524,7 +62524,7 @@
         <v>0</v>
       </c>
       <c r="M1370">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1370">
         <v>0</v>
@@ -62568,7 +62568,7 @@
         <v>0</v>
       </c>
       <c r="M1371">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1371">
         <v>0</v>
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="M1374">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1374">
         <v>0</v>
@@ -62876,7 +62876,7 @@
         <v>0</v>
       </c>
       <c r="M1378">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1378">
         <v>0</v>
@@ -62920,7 +62920,7 @@
         <v>0</v>
       </c>
       <c r="M1379">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1379">
         <v>0</v>
@@ -63008,7 +63008,7 @@
         <v>0</v>
       </c>
       <c r="M1381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1381">
         <v>0</v>
@@ -63052,7 +63052,7 @@
         <v>0</v>
       </c>
       <c r="M1382">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1382">
         <v>0</v>
@@ -63096,7 +63096,7 @@
         <v>0</v>
       </c>
       <c r="M1383">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1383">
         <v>0</v>
@@ -63404,7 +63404,7 @@
         <v>0</v>
       </c>
       <c r="M1390">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1390">
         <v>0</v>
@@ -63448,7 +63448,7 @@
         <v>0</v>
       </c>
       <c r="M1391">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1391">
         <v>0</v>
@@ -63976,7 +63976,7 @@
         <v>0</v>
       </c>
       <c r="M1403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1403">
         <v>0</v>
@@ -64064,7 +64064,7 @@
         <v>0</v>
       </c>
       <c r="M1405">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1405">
         <v>0</v>
@@ -64240,7 +64240,7 @@
         <v>0</v>
       </c>
       <c r="M1409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1409">
         <v>0</v>
@@ -64284,7 +64284,7 @@
         <v>0</v>
       </c>
       <c r="M1410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1410">
         <v>0</v>
@@ -67012,7 +67012,7 @@
         <v>0</v>
       </c>
       <c r="M1472">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1472">
         <v>0</v>
@@ -67276,7 +67276,7 @@
         <v>0</v>
       </c>
       <c r="M1478">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1478">
         <v>0</v>
@@ -67320,7 +67320,7 @@
         <v>0</v>
       </c>
       <c r="M1479">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1479">
         <v>0</v>
@@ -72380,7 +72380,7 @@
         <v>0</v>
       </c>
       <c r="M1594">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1594">
         <v>0</v>
@@ -72424,7 +72424,7 @@
         <v>0</v>
       </c>
       <c r="M1595">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1595">
         <v>0</v>
@@ -72512,7 +72512,7 @@
         <v>0</v>
       </c>
       <c r="M1597">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1597">
         <v>0</v>
@@ -72864,7 +72864,7 @@
         <v>0</v>
       </c>
       <c r="M1605">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1605">
         <v>0</v>
@@ -72908,7 +72908,7 @@
         <v>0</v>
       </c>
       <c r="M1606">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1606">
         <v>0</v>
@@ -73172,7 +73172,7 @@
         <v>0</v>
       </c>
       <c r="M1612">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1612">
         <v>0</v>
@@ -73216,7 +73216,7 @@
         <v>0</v>
       </c>
       <c r="M1613">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1613">
         <v>0</v>
@@ -73392,7 +73392,7 @@
         <v>0</v>
       </c>
       <c r="M1617">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1617">
         <v>0</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="M1640">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1640">
         <v>0</v>
@@ -74448,7 +74448,7 @@
         <v>0</v>
       </c>
       <c r="M1641">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1641">
         <v>0</v>
@@ -74932,7 +74932,7 @@
         <v>0</v>
       </c>
       <c r="M1652">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1652">
         <v>0</v>
@@ -74976,7 +74976,7 @@
         <v>0</v>
       </c>
       <c r="M1653">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1653">
         <v>0</v>
@@ -75064,7 +75064,7 @@
         <v>0</v>
       </c>
       <c r="M1655">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1655">
         <v>0</v>
@@ -75152,7 +75152,7 @@
         <v>0</v>
       </c>
       <c r="M1657">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1657">
         <v>0</v>
@@ -75768,7 +75768,7 @@
         <v>0</v>
       </c>
       <c r="M1671">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1671">
         <v>0</v>
@@ -77528,7 +77528,7 @@
         <v>0</v>
       </c>
       <c r="M1711">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1711">
         <v>0</v>
@@ -77572,7 +77572,7 @@
         <v>0</v>
       </c>
       <c r="M1712">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1712">
         <v>0</v>
@@ -77792,7 +77792,7 @@
         <v>0</v>
       </c>
       <c r="M1717">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1717">
         <v>0</v>
@@ -77836,7 +77836,7 @@
         <v>0</v>
       </c>
       <c r="M1718">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1718">
         <v>0</v>
@@ -79068,7 +79068,7 @@
         <v>0</v>
       </c>
       <c r="M1746">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1746">
         <v>0</v>
@@ -79508,7 +79508,7 @@
         <v>0</v>
       </c>
       <c r="M1756">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1756">
         <v>0</v>
@@ -79552,7 +79552,7 @@
         <v>0</v>
       </c>
       <c r="M1757">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1757">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/09593988483/2023-08-25_relatorio_repasses_09593988483.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09593988483/2023-08-25_relatorio_repasses_09593988483.xlsx
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -5148,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -5192,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5544,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N76">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N80">
-        <v>18.471</v>
+        <v>24.628</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5852,10 +5852,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N82">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5896,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -6644,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N100">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -7084,10 +7084,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N110">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -7172,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N112">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N114">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7304,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7612,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N122">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -18964,10 +18964,10 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N380">
-        <v>2.592</v>
+        <v>65</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -19580,10 +19580,10 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N394">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -19624,10 +19624,10 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N395">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -19800,10 +19800,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -19844,10 +19844,10 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N400">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -19888,10 +19888,10 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N401">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -20020,10 +20020,10 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N404">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -20064,10 +20064,10 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N405">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -20988,10 +20988,10 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N426">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -21472,10 +21472,10 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N437">
-        <v>8.928000000000001</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="438" spans="1:14">
@@ -21516,10 +21516,10 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N438">
-        <v>2.232</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -21692,10 +21692,10 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N442">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="443" spans="1:14">
@@ -21912,10 +21912,10 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N447">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -21956,10 +21956,10 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N448">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -22000,10 +22000,10 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N449">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -22308,10 +22308,10 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N456">
-        <v>8.85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="457" spans="1:14">
@@ -22352,10 +22352,10 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N457">
-        <v>8.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:14">
@@ -22704,10 +22704,10 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N465">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:14">
@@ -22792,10 +22792,10 @@
         <v>0</v>
       </c>
       <c r="M467">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N467">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -23408,10 +23408,10 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N481">
-        <v>7.476</v>
+        <v>9.968000000000002</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -23452,10 +23452,10 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N482">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="483" spans="1:14">
@@ -23496,10 +23496,10 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N483">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -23804,10 +23804,10 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N490">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:14">
@@ -24156,10 +24156,10 @@
         <v>0</v>
       </c>
       <c r="M498">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N498">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="499" spans="1:14">
@@ -24200,10 +24200,10 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N499">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="500" spans="1:14">
@@ -24244,10 +24244,10 @@
         <v>0</v>
       </c>
       <c r="M500">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N500">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:14">
@@ -24288,10 +24288,10 @@
         <v>0</v>
       </c>
       <c r="M501">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N501">
-        <v>7.244999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:14">
@@ -24464,10 +24464,10 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N505">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -24596,10 +24596,10 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N508">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="509" spans="1:14">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N521">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N538">
-        <v>3.135</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="539" spans="1:14">
@@ -25960,10 +25960,10 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N539">
-        <v>6.27</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -26136,10 +26136,10 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N543">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -26708,10 +26708,10 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N556">
-        <v>7.875</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="557" spans="1:14">
@@ -26752,10 +26752,10 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N557">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="558" spans="1:14">
@@ -27148,10 +27148,10 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N566">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:14">
@@ -27192,10 +27192,10 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N567">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="568" spans="1:14">
@@ -27632,10 +27632,10 @@
         <v>0</v>
       </c>
       <c r="M577">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N577">
-        <v>2.046</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="578" spans="1:14">
@@ -27764,10 +27764,10 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N580">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="581" spans="1:14">
@@ -27808,10 +27808,10 @@
         <v>0</v>
       </c>
       <c r="M581">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N581">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="582" spans="1:14">
@@ -27984,10 +27984,10 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N585">
-        <v>8.385</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="586" spans="1:14">
@@ -28160,10 +28160,10 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N589">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="590" spans="1:14">
@@ -28204,10 +28204,10 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N590">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="591" spans="1:14">
@@ -29612,10 +29612,10 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N622">
-        <v>5.55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="623" spans="1:14">
@@ -29656,10 +29656,10 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N623">
-        <v>7.199999999999999</v>
+        <v>9.600000000000001</v>
       </c>
     </row>
     <row r="624" spans="1:14">
@@ -29788,10 +29788,10 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N626">
-        <v>3.168</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="627" spans="1:14">
@@ -29832,10 +29832,10 @@
         <v>0</v>
       </c>
       <c r="M627">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N627">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="628" spans="1:14">
@@ -30184,10 +30184,10 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N635">
-        <v>0.534</v>
+        <v>0.7120000000000001</v>
       </c>
     </row>
     <row r="636" spans="1:14">
@@ -30228,10 +30228,10 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N636">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="637" spans="1:14">
@@ -30272,10 +30272,10 @@
         <v>0</v>
       </c>
       <c r="M637">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N637">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="638" spans="1:14">
@@ -30316,10 +30316,10 @@
         <v>0</v>
       </c>
       <c r="M638">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N638">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -30360,10 +30360,10 @@
         <v>0</v>
       </c>
       <c r="M639">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N639">
-        <v>6.75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="640" spans="1:14">
@@ -30492,10 +30492,10 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N642">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="643" spans="1:14">
@@ -30536,10 +30536,10 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N643">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -30756,10 +30756,10 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N648">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:14">
@@ -30800,10 +30800,10 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N649">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="650" spans="1:14">
@@ -30844,10 +30844,10 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N650">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -30888,10 +30888,10 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N651">
-        <v>3.168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -30932,10 +30932,10 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N652">
-        <v>3.168</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -30976,10 +30976,10 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N653">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -31064,10 +31064,10 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N655">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -31108,10 +31108,10 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N656">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -31152,10 +31152,10 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N657">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -31240,10 +31240,10 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:14">
@@ -31372,10 +31372,10 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N662">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="663" spans="1:14">
@@ -31548,10 +31548,10 @@
         <v>0</v>
       </c>
       <c r="M666">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N666">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="667" spans="1:14">
@@ -31680,10 +31680,10 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N669">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="670" spans="1:14">
@@ -32428,10 +32428,10 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -32472,10 +32472,10 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N687">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -32516,10 +32516,10 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N688">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:14">
@@ -32560,10 +32560,10 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N689">
-        <v>2.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:14">
@@ -32912,10 +32912,10 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N697">
-        <v>8.85</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="698" spans="1:14">
@@ -33044,10 +33044,10 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N700">
-        <v>6.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:14">
@@ -33132,10 +33132,10 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N702">
-        <v>6.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:14">
@@ -33748,10 +33748,10 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N716">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="717" spans="1:14">
@@ -33792,10 +33792,10 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N717">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="718" spans="1:14">
@@ -33968,10 +33968,10 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N721">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="722" spans="1:14">
@@ -34188,10 +34188,10 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N726">
-        <v>6.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="727" spans="1:14">
@@ -34496,10 +34496,10 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N733">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="734" spans="1:14">
@@ -35068,10 +35068,10 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N746">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="747" spans="1:14">
@@ -35288,10 +35288,10 @@
         <v>0</v>
       </c>
       <c r="M751">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N751">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="752" spans="1:14">
@@ -35332,10 +35332,10 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N752">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="753" spans="1:14">
@@ -35376,10 +35376,10 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N753">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="754" spans="1:14">
@@ -35552,10 +35552,10 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N757">
-        <v>2.592</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:14">
@@ -35596,10 +35596,10 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N758">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:14">
@@ -35640,10 +35640,10 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N759">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760" spans="1:14">
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N761">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="762" spans="1:14">
@@ -36080,10 +36080,10 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N769">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="770" spans="1:14">
@@ -36124,10 +36124,10 @@
         <v>0</v>
       </c>
       <c r="M770">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N770">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="771" spans="1:14">
@@ -36300,10 +36300,10 @@
         <v>0</v>
       </c>
       <c r="M774">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N774">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="775" spans="1:14">
@@ -36432,10 +36432,10 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N777">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="778" spans="1:14">
@@ -36740,10 +36740,10 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N784">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="785" spans="1:14">
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="M786">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N786">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="787" spans="1:14">
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N788">
-        <v>3.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="789" spans="1:14">
@@ -36960,10 +36960,10 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N789">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="790" spans="1:14">
@@ -37004,10 +37004,10 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N790">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="791" spans="1:14">
@@ -37048,10 +37048,10 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N791">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -37092,10 +37092,10 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N792">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="793" spans="1:14">
@@ -37136,10 +37136,10 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N793">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="794" spans="1:14">
@@ -38500,10 +38500,10 @@
         <v>0</v>
       </c>
       <c r="M824">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N824">
-        <v>7.875</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="825" spans="1:14">
@@ -39248,10 +39248,10 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N841">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="842" spans="1:14">
@@ -39292,10 +39292,10 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N842">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="843" spans="1:14">
@@ -39424,10 +39424,10 @@
         <v>0</v>
       </c>
       <c r="M845">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N845">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:14">
@@ -39512,10 +39512,10 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N847">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="848" spans="1:14">
@@ -39556,10 +39556,10 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N848">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="849" spans="1:14">
@@ -39644,10 +39644,10 @@
         <v>0</v>
       </c>
       <c r="M850">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N850">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="851" spans="1:14">
@@ -39952,10 +39952,10 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N857">
-        <v>3.168</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="858" spans="1:14">
@@ -39996,10 +39996,10 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N858">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="859" spans="1:14">
@@ -40040,10 +40040,10 @@
         <v>0</v>
       </c>
       <c r="M859">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N859">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="860" spans="1:14">
@@ -40084,10 +40084,10 @@
         <v>0</v>
       </c>
       <c r="M860">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N860">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="861" spans="1:14">
@@ -40480,10 +40480,10 @@
         <v>0</v>
       </c>
       <c r="M869">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N869">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="870" spans="1:14">
@@ -40524,10 +40524,10 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N870">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="871" spans="1:14">
@@ -40568,10 +40568,10 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N871">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="872" spans="1:14">
@@ -40700,10 +40700,10 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N874">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="875" spans="1:14">
@@ -40876,10 +40876,10 @@
         <v>0</v>
       </c>
       <c r="M878">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N878">
-        <v>2.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:14">
@@ -40920,10 +40920,10 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N879">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="880" spans="1:14">
@@ -41184,10 +41184,10 @@
         <v>0</v>
       </c>
       <c r="M885">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N885">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="886" spans="1:14">
@@ -41228,10 +41228,10 @@
         <v>0</v>
       </c>
       <c r="M886">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N886">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="887" spans="1:14">
@@ -41272,10 +41272,10 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N887">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="888" spans="1:14">
@@ -41316,10 +41316,10 @@
         <v>0</v>
       </c>
       <c r="M888">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N888">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="889" spans="1:14">
@@ -41624,10 +41624,10 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N895">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:14">
@@ -41668,10 +41668,10 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N896">
-        <v>2.592</v>
+        <v>65</v>
       </c>
     </row>
     <row r="897" spans="1:14">
@@ -41712,10 +41712,10 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N897">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:14">
@@ -42020,10 +42020,10 @@
         <v>0</v>
       </c>
       <c r="M904">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N904">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="905" spans="1:14">
@@ -42504,10 +42504,10 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N915">
-        <v>3.66</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="916" spans="1:14">
@@ -43296,10 +43296,10 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N933">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="934" spans="1:14">
@@ -43340,10 +43340,10 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N934">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="935" spans="1:14">
@@ -43604,10 +43604,10 @@
         <v>0</v>
       </c>
       <c r="M940">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N940">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:14">
@@ -43736,10 +43736,10 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N943">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:14">
@@ -43824,7 +43824,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -44132,7 +44132,7 @@
         <v>0</v>
       </c>
       <c r="M952">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N952">
         <v>0</v>
@@ -44176,7 +44176,7 @@
         <v>0</v>
       </c>
       <c r="M953">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N953">
         <v>0</v>
@@ -44352,7 +44352,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -44396,7 +44396,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -44440,7 +44440,7 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N959">
         <v>0</v>
@@ -44484,7 +44484,7 @@
         <v>0</v>
       </c>
       <c r="M960">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N960">
         <v>0</v>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
       <c r="M966">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N966">
         <v>0</v>
@@ -45276,7 +45276,7 @@
         <v>0</v>
       </c>
       <c r="M978">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N978">
         <v>0</v>
@@ -45760,7 +45760,7 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N989">
         <v>0</v>
@@ -45804,7 +45804,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -45848,7 +45848,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -45892,7 +45892,7 @@
         <v>0</v>
       </c>
       <c r="M992">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N992">
         <v>0</v>
@@ -46200,10 +46200,10 @@
         <v>0</v>
       </c>
       <c r="M999">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N999">
-        <v>6.48</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="1000" spans="1:14">
@@ -46244,7 +46244,7 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1000">
         <v>0</v>
@@ -46288,7 +46288,7 @@
         <v>0</v>
       </c>
       <c r="M1001">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1001">
         <v>0</v>
@@ -46464,7 +46464,7 @@
         <v>0</v>
       </c>
       <c r="M1005">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1005">
         <v>0</v>
@@ -46596,7 +46596,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -46640,7 +46640,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46728,7 +46728,7 @@
         <v>0</v>
       </c>
       <c r="M1011">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1011">
         <v>0</v>
@@ -46772,7 +46772,7 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1012">
         <v>0</v>
@@ -46860,7 +46860,7 @@
         <v>0</v>
       </c>
       <c r="M1014">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="N1014">
         <v>0</v>
@@ -46904,7 +46904,7 @@
         <v>0</v>
       </c>
       <c r="M1015">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N1015">
         <v>0</v>
@@ -46948,7 +46948,7 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N1016">
         <v>0</v>
@@ -47388,7 +47388,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47432,7 +47432,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -47476,7 +47476,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -47652,7 +47652,7 @@
         <v>0</v>
       </c>
       <c r="M1032">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1032">
         <v>0</v>
@@ -47696,7 +47696,7 @@
         <v>0</v>
       </c>
       <c r="M1033">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1033">
         <v>0</v>
@@ -47740,7 +47740,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -47784,7 +47784,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -48136,7 +48136,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -48180,7 +48180,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -48224,7 +48224,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -48400,7 +48400,7 @@
         <v>0</v>
       </c>
       <c r="M1049">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1049">
         <v>0</v>
@@ -48444,7 +48444,7 @@
         <v>0</v>
       </c>
       <c r="M1050">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1050">
         <v>0</v>
@@ -48532,7 +48532,7 @@
         <v>0</v>
       </c>
       <c r="M1052">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1052">
         <v>0</v>
@@ -49280,7 +49280,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -49896,7 +49896,7 @@
         <v>0</v>
       </c>
       <c r="M1083">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1083">
         <v>0</v>
@@ -49940,7 +49940,7 @@
         <v>0</v>
       </c>
       <c r="M1084">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1084">
         <v>0</v>
@@ -50072,7 +50072,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -50248,7 +50248,7 @@
         <v>0</v>
       </c>
       <c r="M1091">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1091">
         <v>0</v>
@@ -50292,7 +50292,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -50380,7 +50380,7 @@
         <v>0</v>
       </c>
       <c r="M1094">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1094">
         <v>0</v>
@@ -50424,7 +50424,7 @@
         <v>0</v>
       </c>
       <c r="M1095">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1095">
         <v>0</v>
@@ -50732,7 +50732,7 @@
         <v>0</v>
       </c>
       <c r="M1102">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1102">
         <v>0</v>
@@ -50952,7 +50952,7 @@
         <v>0</v>
       </c>
       <c r="M1107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1107">
         <v>0</v>
@@ -51612,7 +51612,7 @@
         <v>0</v>
       </c>
       <c r="M1122">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1122">
         <v>0</v>
@@ -51700,7 +51700,7 @@
         <v>0</v>
       </c>
       <c r="M1124">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1124">
         <v>0</v>
@@ -51876,7 +51876,7 @@
         <v>0</v>
       </c>
       <c r="M1128">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1128">
         <v>0</v>
@@ -52096,7 +52096,7 @@
         <v>0</v>
       </c>
       <c r="M1133">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1133">
         <v>0</v>
@@ -52140,7 +52140,7 @@
         <v>0</v>
       </c>
       <c r="M1134">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1134">
         <v>0</v>
@@ -52184,7 +52184,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1135">
         <v>0</v>
@@ -52360,7 +52360,7 @@
         <v>0</v>
       </c>
       <c r="M1139">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1139">
         <v>0</v>
@@ -52404,7 +52404,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1140">
         <v>0</v>
@@ -52580,7 +52580,7 @@
         <v>0</v>
       </c>
       <c r="M1144">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1144">
         <v>0</v>
@@ -52668,7 +52668,7 @@
         <v>0</v>
       </c>
       <c r="M1146">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1146">
         <v>0</v>
@@ -52932,7 +52932,7 @@
         <v>0</v>
       </c>
       <c r="M1152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1152">
         <v>0</v>
@@ -53064,7 +53064,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -53328,7 +53328,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -53504,7 +53504,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53680,7 +53680,7 @@
         <v>0</v>
       </c>
       <c r="M1169">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1169">
         <v>0</v>
@@ -53724,7 +53724,7 @@
         <v>0</v>
       </c>
       <c r="M1170">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1170">
         <v>0</v>
@@ -53988,7 +53988,7 @@
         <v>0</v>
       </c>
       <c r="M1176">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1176">
         <v>0</v>
@@ -54208,7 +54208,7 @@
         <v>0</v>
       </c>
       <c r="M1181">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1181">
         <v>0</v>
@@ -54296,7 +54296,7 @@
         <v>0</v>
       </c>
       <c r="M1183">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N1183">
         <v>0</v>
@@ -54340,7 +54340,7 @@
         <v>0</v>
       </c>
       <c r="M1184">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N1184">
         <v>0</v>
@@ -54472,7 +54472,7 @@
         <v>0</v>
       </c>
       <c r="M1187">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1187">
         <v>0</v>
@@ -54516,7 +54516,7 @@
         <v>0</v>
       </c>
       <c r="M1188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1188">
         <v>0</v>
@@ -54560,7 +54560,7 @@
         <v>0</v>
       </c>
       <c r="M1189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1189">
         <v>0</v>
@@ -54868,7 +54868,7 @@
         <v>0</v>
       </c>
       <c r="M1196">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1196">
         <v>0</v>
@@ -54912,7 +54912,7 @@
         <v>0</v>
       </c>
       <c r="M1197">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1197">
         <v>0</v>
@@ -54956,7 +54956,7 @@
         <v>0</v>
       </c>
       <c r="M1198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1198">
         <v>0</v>
@@ -55000,7 +55000,7 @@
         <v>0</v>
       </c>
       <c r="M1199">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1199">
         <v>0</v>
@@ -55044,7 +55044,7 @@
         <v>0</v>
       </c>
       <c r="M1200">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1200">
         <v>0</v>
@@ -55088,7 +55088,7 @@
         <v>0</v>
       </c>
       <c r="M1201">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1201">
         <v>0</v>
@@ -55132,7 +55132,7 @@
         <v>0</v>
       </c>
       <c r="M1202">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1202">
         <v>0</v>
@@ -55440,7 +55440,7 @@
         <v>0</v>
       </c>
       <c r="M1209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1209">
         <v>0</v>
@@ -55484,7 +55484,7 @@
         <v>0</v>
       </c>
       <c r="M1210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1210">
         <v>0</v>
@@ -55528,7 +55528,7 @@
         <v>0</v>
       </c>
       <c r="M1211">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1211">
         <v>0</v>
@@ -55572,7 +55572,7 @@
         <v>0</v>
       </c>
       <c r="M1212">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1212">
         <v>0</v>
@@ -55704,7 +55704,7 @@
         <v>0</v>
       </c>
       <c r="M1215">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1215">
         <v>0</v>
@@ -56056,7 +56056,7 @@
         <v>0</v>
       </c>
       <c r="M1223">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1223">
         <v>0</v>
@@ -56144,7 +56144,7 @@
         <v>0</v>
       </c>
       <c r="M1225">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1225">
         <v>0</v>
@@ -56408,7 +56408,7 @@
         <v>0</v>
       </c>
       <c r="M1231">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1231">
         <v>0</v>
@@ -56452,7 +56452,7 @@
         <v>0</v>
       </c>
       <c r="M1232">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1232">
         <v>0</v>
@@ -56496,7 +56496,7 @@
         <v>0</v>
       </c>
       <c r="M1233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1233">
         <v>0</v>
@@ -56540,7 +56540,7 @@
         <v>0</v>
       </c>
       <c r="M1234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1234">
         <v>0</v>
@@ -56716,7 +56716,7 @@
         <v>0</v>
       </c>
       <c r="M1238">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1238">
         <v>0</v>
@@ -56760,7 +56760,7 @@
         <v>0</v>
       </c>
       <c r="M1239">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1239">
         <v>0</v>
@@ -56804,7 +56804,7 @@
         <v>0</v>
       </c>
       <c r="M1240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1240">
         <v>0</v>
@@ -56936,7 +56936,7 @@
         <v>0</v>
       </c>
       <c r="M1243">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1243">
         <v>0</v>
@@ -56980,7 +56980,7 @@
         <v>0</v>
       </c>
       <c r="M1244">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1244">
         <v>0</v>
@@ -57200,7 +57200,7 @@
         <v>0</v>
       </c>
       <c r="M1249">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1249">
         <v>0</v>
@@ -57244,7 +57244,7 @@
         <v>0</v>
       </c>
       <c r="M1250">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="N1250">
         <v>0</v>
@@ -57288,7 +57288,7 @@
         <v>0</v>
       </c>
       <c r="M1251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1251">
         <v>0</v>
@@ -57332,7 +57332,7 @@
         <v>0</v>
       </c>
       <c r="M1252">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1252">
         <v>0</v>
@@ -57552,7 +57552,7 @@
         <v>0</v>
       </c>
       <c r="M1257">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1257">
         <v>0</v>
@@ -57596,7 +57596,7 @@
         <v>0</v>
       </c>
       <c r="M1258">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1258">
         <v>0</v>
@@ -57816,7 +57816,7 @@
         <v>0</v>
       </c>
       <c r="M1263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1263">
         <v>0</v>
@@ -57860,7 +57860,7 @@
         <v>0</v>
       </c>
       <c r="M1264">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1264">
         <v>0</v>
@@ -57992,7 +57992,7 @@
         <v>0</v>
       </c>
       <c r="M1267">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1267">
         <v>0</v>
@@ -58300,7 +58300,7 @@
         <v>0</v>
       </c>
       <c r="M1274">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1274">
         <v>0</v>
@@ -58696,7 +58696,7 @@
         <v>0</v>
       </c>
       <c r="M1283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1283">
         <v>0</v>
@@ -58828,7 +58828,7 @@
         <v>0</v>
       </c>
       <c r="M1286">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1286">
         <v>0</v>
@@ -58872,7 +58872,7 @@
         <v>0</v>
       </c>
       <c r="M1287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1287">
         <v>0</v>
@@ -59004,7 +59004,7 @@
         <v>0</v>
       </c>
       <c r="M1290">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1290">
         <v>0</v>
@@ -59048,7 +59048,7 @@
         <v>0</v>
       </c>
       <c r="M1291">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1291">
         <v>0</v>
@@ -59180,7 +59180,7 @@
         <v>0</v>
       </c>
       <c r="M1294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1294">
         <v>0</v>
@@ -59224,7 +59224,7 @@
         <v>0</v>
       </c>
       <c r="M1295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1295">
         <v>0</v>
@@ -59356,10 +59356,10 @@
         <v>1</v>
       </c>
       <c r="M1298">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1298">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1299" spans="1:14">
@@ -59400,7 +59400,7 @@
         <v>0</v>
       </c>
       <c r="M1299">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1299">
         <v>0</v>
@@ -59444,7 +59444,7 @@
         <v>0</v>
       </c>
       <c r="M1300">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N1300">
         <v>0</v>
@@ -59532,7 +59532,7 @@
         <v>0</v>
       </c>
       <c r="M1302">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1302">
         <v>0</v>
@@ -60060,7 +60060,7 @@
         <v>0</v>
       </c>
       <c r="M1314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1314">
         <v>0</v>
@@ -60104,7 +60104,7 @@
         <v>0</v>
       </c>
       <c r="M1315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1315">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="M1317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1317">
         <v>0</v>
@@ -60236,7 +60236,7 @@
         <v>0</v>
       </c>
       <c r="M1318">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1318">
         <v>0</v>
@@ -60280,7 +60280,7 @@
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1319">
         <v>0</v>
@@ -60412,7 +60412,7 @@
         <v>0</v>
       </c>
       <c r="M1322">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1322">
         <v>0</v>
@@ -60500,7 +60500,7 @@
         <v>0</v>
       </c>
       <c r="M1324">
-        <v>0.59</v>
+        <v>0.3</v>
       </c>
       <c r="N1324">
         <v>0</v>
@@ -60852,7 +60852,7 @@
         <v>0</v>
       </c>
       <c r="M1332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1332">
         <v>0</v>
@@ -60896,7 +60896,7 @@
         <v>0</v>
       </c>
       <c r="M1333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1333">
         <v>0</v>
@@ -60940,7 +60940,7 @@
         <v>0</v>
       </c>
       <c r="M1334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1334">
         <v>0</v>
@@ -60984,7 +60984,7 @@
         <v>0</v>
       </c>
       <c r="M1335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1335">
         <v>0</v>
@@ -61028,7 +61028,7 @@
         <v>0</v>
       </c>
       <c r="M1336">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1336">
         <v>0</v>
@@ -61424,7 +61424,7 @@
         <v>0</v>
       </c>
       <c r="M1345">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1345">
         <v>0</v>
@@ -61468,7 +61468,7 @@
         <v>0</v>
       </c>
       <c r="M1346">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1346">
         <v>0</v>
@@ -61512,7 +61512,7 @@
         <v>0</v>
       </c>
       <c r="M1347">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1347">
         <v>0</v>
@@ -61820,7 +61820,7 @@
         <v>0</v>
       </c>
       <c r="M1354">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1354">
         <v>0</v>
@@ -62216,7 +62216,7 @@
         <v>0</v>
       </c>
       <c r="M1363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1363">
         <v>0</v>
@@ -62392,7 +62392,7 @@
         <v>0</v>
       </c>
       <c r="M1367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1367">
         <v>0</v>
@@ -62436,7 +62436,7 @@
         <v>0</v>
       </c>
       <c r="M1368">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1368">
         <v>0</v>
@@ -62524,7 +62524,7 @@
         <v>0</v>
       </c>
       <c r="M1370">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1370">
         <v>0</v>
@@ -62612,7 +62612,7 @@
         <v>0</v>
       </c>
       <c r="M1372">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1372">
         <v>0</v>
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="M1374">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1374">
         <v>0</v>
@@ -62744,7 +62744,7 @@
         <v>0</v>
       </c>
       <c r="M1375">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1375">
         <v>0</v>
@@ -62788,7 +62788,7 @@
         <v>0</v>
       </c>
       <c r="M1376">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1376">
         <v>0</v>
@@ -63052,7 +63052,7 @@
         <v>0</v>
       </c>
       <c r="M1382">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1382">
         <v>0</v>
@@ -63096,7 +63096,7 @@
         <v>0</v>
       </c>
       <c r="M1383">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1383">
         <v>0</v>
@@ -63448,7 +63448,7 @@
         <v>0</v>
       </c>
       <c r="M1391">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1391">
         <v>0</v>
@@ -63624,7 +63624,7 @@
         <v>0</v>
       </c>
       <c r="M1395">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1395">
         <v>0</v>
@@ -64240,7 +64240,7 @@
         <v>0</v>
       </c>
       <c r="M1409">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1409">
         <v>0</v>
@@ -64460,7 +64460,7 @@
         <v>0</v>
       </c>
       <c r="M1414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1414">
         <v>0</v>
@@ -64768,7 +64768,7 @@
         <v>0</v>
       </c>
       <c r="M1421">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1421">
         <v>0</v>
@@ -65384,7 +65384,7 @@
         <v>0</v>
       </c>
       <c r="M1435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1435">
         <v>0</v>
@@ -65472,7 +65472,7 @@
         <v>0</v>
       </c>
       <c r="M1437">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1437">
         <v>0</v>
@@ -65692,7 +65692,7 @@
         <v>0</v>
       </c>
       <c r="M1442">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1442">
         <v>0</v>
@@ -65868,7 +65868,7 @@
         <v>0</v>
       </c>
       <c r="M1446">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1446">
         <v>0</v>
@@ -65912,7 +65912,7 @@
         <v>0</v>
       </c>
       <c r="M1447">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1447">
         <v>0</v>
@@ -65956,7 +65956,7 @@
         <v>0</v>
       </c>
       <c r="M1448">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1448">
         <v>0</v>
@@ -66088,7 +66088,7 @@
         <v>0</v>
       </c>
       <c r="M1451">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1451">
         <v>0</v>
@@ -66264,7 +66264,7 @@
         <v>0</v>
       </c>
       <c r="M1455">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1455">
         <v>0</v>
@@ -66528,7 +66528,7 @@
         <v>0</v>
       </c>
       <c r="M1461">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1461">
         <v>0</v>
@@ -66880,7 +66880,7 @@
         <v>0</v>
       </c>
       <c r="M1469">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1469">
         <v>0</v>
@@ -66924,7 +66924,7 @@
         <v>0</v>
       </c>
       <c r="M1470">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1470">
         <v>0</v>
@@ -66968,7 +66968,7 @@
         <v>0</v>
       </c>
       <c r="M1471">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1471">
         <v>0</v>
@@ -67012,7 +67012,7 @@
         <v>0</v>
       </c>
       <c r="M1472">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1472">
         <v>0</v>
@@ -67144,7 +67144,7 @@
         <v>0</v>
       </c>
       <c r="M1475">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1475">
         <v>0</v>
@@ -67188,7 +67188,7 @@
         <v>0</v>
       </c>
       <c r="M1476">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1476">
         <v>0</v>
@@ -67320,7 +67320,7 @@
         <v>0</v>
       </c>
       <c r="M1479">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1479">
         <v>0</v>
@@ -67452,7 +67452,7 @@
         <v>0</v>
       </c>
       <c r="M1482">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1482">
         <v>0</v>
@@ -67628,7 +67628,7 @@
         <v>0</v>
       </c>
       <c r="M1486">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1486">
         <v>0</v>
@@ -67760,7 +67760,7 @@
         <v>0</v>
       </c>
       <c r="M1489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1489">
         <v>0</v>
@@ -67804,7 +67804,7 @@
         <v>0</v>
       </c>
       <c r="M1490">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1490">
         <v>0</v>
@@ -67848,7 +67848,7 @@
         <v>0</v>
       </c>
       <c r="M1491">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1491">
         <v>0</v>
@@ -67892,7 +67892,7 @@
         <v>0</v>
       </c>
       <c r="M1492">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1492">
         <v>0</v>
@@ -67936,7 +67936,7 @@
         <v>0</v>
       </c>
       <c r="M1493">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1493">
         <v>0</v>
@@ -68024,7 +68024,7 @@
         <v>0</v>
       </c>
       <c r="M1495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1495">
         <v>0</v>
@@ -68068,7 +68068,7 @@
         <v>0</v>
       </c>
       <c r="M1496">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1496">
         <v>0</v>
@@ -68112,7 +68112,7 @@
         <v>0</v>
       </c>
       <c r="M1497">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1497">
         <v>0</v>
@@ -68156,7 +68156,7 @@
         <v>0</v>
       </c>
       <c r="M1498">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1498">
         <v>0</v>
@@ -68200,7 +68200,7 @@
         <v>0</v>
       </c>
       <c r="M1499">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1499">
         <v>0</v>
@@ -68244,7 +68244,7 @@
         <v>0</v>
       </c>
       <c r="M1500">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1500">
         <v>0</v>
@@ -68288,7 +68288,7 @@
         <v>0</v>
       </c>
       <c r="M1501">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1501">
         <v>0</v>
@@ -68332,7 +68332,7 @@
         <v>0</v>
       </c>
       <c r="M1502">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1502">
         <v>0</v>
@@ -68376,7 +68376,7 @@
         <v>0</v>
       </c>
       <c r="M1503">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1503">
         <v>0</v>
@@ -68508,7 +68508,7 @@
         <v>0</v>
       </c>
       <c r="M1506">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1506">
         <v>0</v>
@@ -68596,7 +68596,7 @@
         <v>0</v>
       </c>
       <c r="M1508">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1508">
         <v>0</v>
@@ -68640,7 +68640,7 @@
         <v>0</v>
       </c>
       <c r="M1509">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1509">
         <v>0</v>
@@ -68684,7 +68684,7 @@
         <v>0</v>
       </c>
       <c r="M1510">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1510">
         <v>0</v>
@@ -69300,7 +69300,7 @@
         <v>0</v>
       </c>
       <c r="M1524">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1524">
         <v>0</v>
@@ -69344,7 +69344,7 @@
         <v>0</v>
       </c>
       <c r="M1525">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1525">
         <v>0</v>
@@ -69432,7 +69432,7 @@
         <v>0</v>
       </c>
       <c r="M1527">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1527">
         <v>0</v>
@@ -69740,7 +69740,7 @@
         <v>0</v>
       </c>
       <c r="M1534">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1534">
         <v>0</v>
@@ -69784,7 +69784,7 @@
         <v>0</v>
       </c>
       <c r="M1535">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1535">
         <v>0</v>
@@ -69916,7 +69916,7 @@
         <v>0</v>
       </c>
       <c r="M1538">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1538">
         <v>0</v>
@@ -70356,7 +70356,7 @@
         <v>0</v>
       </c>
       <c r="M1548">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1548">
         <v>0</v>
@@ -70444,7 +70444,7 @@
         <v>0</v>
       </c>
       <c r="M1550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1550">
         <v>0</v>
@@ -70488,7 +70488,7 @@
         <v>0</v>
       </c>
       <c r="M1551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1551">
         <v>0</v>
@@ -71368,7 +71368,7 @@
         <v>0</v>
       </c>
       <c r="M1571">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1571">
         <v>0</v>
@@ -71412,7 +71412,7 @@
         <v>0</v>
       </c>
       <c r="M1572">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1572">
         <v>0</v>
@@ -72292,7 +72292,7 @@
         <v>0</v>
       </c>
       <c r="M1592">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1592">
         <v>0</v>
@@ -72380,7 +72380,7 @@
         <v>0</v>
       </c>
       <c r="M1594">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1594">
         <v>0</v>
@@ -72468,7 +72468,7 @@
         <v>0</v>
       </c>
       <c r="M1596">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1596">
         <v>0</v>
@@ -72512,7 +72512,7 @@
         <v>0</v>
       </c>
       <c r="M1597">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1597">
         <v>0</v>
@@ -72864,7 +72864,7 @@
         <v>0</v>
       </c>
       <c r="M1605">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1605">
         <v>0</v>
@@ -72952,7 +72952,7 @@
         <v>0</v>
       </c>
       <c r="M1607">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1607">
         <v>0</v>
@@ -73216,7 +73216,7 @@
         <v>0</v>
       </c>
       <c r="M1613">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1613">
         <v>0</v>
@@ -73700,7 +73700,7 @@
         <v>0</v>
       </c>
       <c r="M1624">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1624">
         <v>0</v>
@@ -73744,7 +73744,7 @@
         <v>0</v>
       </c>
       <c r="M1625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1625">
         <v>0</v>
@@ -73832,7 +73832,7 @@
         <v>0</v>
       </c>
       <c r="M1627">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1627">
         <v>0</v>
@@ -74096,7 +74096,7 @@
         <v>0</v>
       </c>
       <c r="M1633">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1633">
         <v>0</v>
@@ -74140,7 +74140,7 @@
         <v>0</v>
       </c>
       <c r="M1634">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1634">
         <v>0</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="M1640">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1640">
         <v>0</v>
@@ -74448,7 +74448,7 @@
         <v>0</v>
       </c>
       <c r="M1641">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1641">
         <v>0</v>
@@ -74492,7 +74492,7 @@
         <v>0</v>
       </c>
       <c r="M1642">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1642">
         <v>0</v>
@@ -74624,7 +74624,7 @@
         <v>0</v>
       </c>
       <c r="M1645">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1645">
         <v>0</v>
@@ -74712,7 +74712,7 @@
         <v>0</v>
       </c>
       <c r="M1647">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1647">
         <v>0</v>
@@ -74756,7 +74756,7 @@
         <v>0</v>
       </c>
       <c r="M1648">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1648">
         <v>0</v>
@@ -74888,7 +74888,7 @@
         <v>0</v>
       </c>
       <c r="M1651">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1651">
         <v>0</v>
@@ -74976,7 +74976,7 @@
         <v>0</v>
       </c>
       <c r="M1653">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1653">
         <v>0</v>
@@ -75020,7 +75020,7 @@
         <v>0</v>
       </c>
       <c r="M1654">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1654">
         <v>0</v>
@@ -75152,7 +75152,7 @@
         <v>0</v>
       </c>
       <c r="M1657">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1657">
         <v>0</v>
@@ -75460,7 +75460,7 @@
         <v>0</v>
       </c>
       <c r="M1664">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1664">
         <v>0</v>
@@ -75768,7 +75768,7 @@
         <v>0</v>
       </c>
       <c r="M1671">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1671">
         <v>0</v>
@@ -76208,7 +76208,7 @@
         <v>0</v>
       </c>
       <c r="M1681">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1681">
         <v>0</v>
@@ -76472,7 +76472,7 @@
         <v>0</v>
       </c>
       <c r="M1687">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1687">
         <v>0</v>
@@ -76516,7 +76516,7 @@
         <v>0</v>
       </c>
       <c r="M1688">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1688">
         <v>0</v>
@@ -76956,7 +76956,7 @@
         <v>0</v>
       </c>
       <c r="M1698">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1698">
         <v>0</v>
@@ -77044,7 +77044,7 @@
         <v>0</v>
       </c>
       <c r="M1700">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1700">
         <v>0</v>
@@ -77088,7 +77088,7 @@
         <v>0</v>
       </c>
       <c r="M1701">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1701">
         <v>0</v>
@@ -77132,7 +77132,7 @@
         <v>0</v>
       </c>
       <c r="M1702">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1702">
         <v>0</v>
@@ -77176,7 +77176,7 @@
         <v>0</v>
       </c>
       <c r="M1703">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1703">
         <v>0</v>
@@ -77220,7 +77220,7 @@
         <v>0</v>
       </c>
       <c r="M1704">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1704">
         <v>0</v>
@@ -77528,7 +77528,7 @@
         <v>0</v>
       </c>
       <c r="M1711">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1711">
         <v>0</v>
@@ -77572,7 +77572,7 @@
         <v>0</v>
       </c>
       <c r="M1712">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1712">
         <v>0</v>
@@ -77660,7 +77660,7 @@
         <v>0</v>
       </c>
       <c r="M1714">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1714">
         <v>0</v>
@@ -77704,7 +77704,7 @@
         <v>0</v>
       </c>
       <c r="M1715">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1715">
         <v>0</v>
@@ -77748,7 +77748,7 @@
         <v>0</v>
       </c>
       <c r="M1716">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1716">
         <v>0</v>
@@ -77836,7 +77836,7 @@
         <v>0</v>
       </c>
       <c r="M1718">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1718">
         <v>0</v>
@@ -78100,7 +78100,7 @@
         <v>0</v>
       </c>
       <c r="M1724">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1724">
         <v>0</v>
@@ -78144,7 +78144,7 @@
         <v>0</v>
       </c>
       <c r="M1725">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1725">
         <v>0</v>
@@ -78188,7 +78188,7 @@
         <v>0</v>
       </c>
       <c r="M1726">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1726">
         <v>0</v>
@@ -78276,7 +78276,7 @@
         <v>0</v>
       </c>
       <c r="M1728">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1728">
         <v>0</v>
@@ -78672,7 +78672,7 @@
         <v>0</v>
       </c>
       <c r="M1737">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1737">
         <v>0</v>
@@ -78760,7 +78760,7 @@
         <v>0</v>
       </c>
       <c r="M1739">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1739">
         <v>0</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="M1743">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1743">
         <v>0</v>
@@ -78980,7 +78980,7 @@
         <v>0</v>
       </c>
       <c r="M1744">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1744">
         <v>0</v>
@@ -79068,7 +79068,7 @@
         <v>0</v>
       </c>
       <c r="M1746">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1746">
         <v>0</v>
@@ -79464,7 +79464,7 @@
         <v>0</v>
       </c>
       <c r="M1755">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1755">
         <v>0</v>
@@ -79508,7 +79508,7 @@
         <v>0</v>
       </c>
       <c r="M1756">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1756">
         <v>0</v>
@@ -79640,7 +79640,7 @@
         <v>0</v>
       </c>
       <c r="M1759">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1759">
         <v>0</v>
@@ -79904,7 +79904,7 @@
         <v>0</v>
       </c>
       <c r="M1765">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1765">
         <v>0</v>
@@ -79948,7 +79948,7 @@
         <v>0</v>
       </c>
       <c r="M1766">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1766">
         <v>0</v>
